--- a/public/reports/6880 - Фондација ТАТЕ НОВОСАЂАНИ/2025/08/prepaid/complete_report_Fondacija_TATE_NOVOSADjANI_prepaid_08_2025.xlsx
+++ b/public/reports/6880 - Фондација ТАТЕ НОВОСАЂАНИ/2025/08/prepaid/complete_report_Fondacija_TATE_NOVOSADjANI_prepaid_08_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -841,7 +841,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>
@@ -928,15 +928,9 @@
         <v>800</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
@@ -1052,9 +1046,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="31" t="s">
-        <v>18</v>
-      </c>
+      <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>

--- a/public/reports/6880 - Фондација ТАТЕ НОВОСАЂАНИ/2025/08/prepaid/complete_report_Fondacija_TATE_NOVOSADjANI_prepaid_08_2025.xlsx
+++ b/public/reports/6880 - Фондација ТАТЕ НОВОСАЂАНИ/2025/08/prepaid/complete_report_Fondacija_TATE_NOVOSADjANI_prepaid_08_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ДЕЛОВОДНИ БРОЈ:</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Рачун примаоца:</t>
+  </si>
+  <si>
+    <t>Банка: Erste Bank A.Д. Нови Сад  Рачун: 340-0000011024555-64</t>
   </si>
   <si>
     <t>ПИБ 111602115</t>
@@ -288,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,9 +322,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -335,40 +364,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -379,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -755,7 +776,7 @@
   <dimension ref="A7:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="pageLayout">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
@@ -764,8 +785,8 @@
     <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
@@ -884,50 +905,50 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="20">
+      <c r="D24" s="28">
         <v>800</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -947,9 +968,9 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -959,41 +980,43 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="D27" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="23"/>
       <c r="F29" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -1001,20 +1024,20 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>17</v>
+      <c r="A30" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -1026,7 +1049,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -1038,85 +1061,85 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="30"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>19</v>
+      <c r="A33" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>20</v>
+      <c r="A38" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="36"/>
+      <c r="D38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="43"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
@@ -1124,45 +1147,45 @@
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="38"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="45"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="30"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>25</v>
+      <c r="A41" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="36"/>
+      <c r="D41" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="43"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -1174,19 +1197,19 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="30"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
@@ -1197,44 +1220,46 @@
       <c r="I44" s="1"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="G46" s="44" t="s">
+      <c r="B46" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="G46" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="G47" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="G47" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="B50" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D21:J23"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D27:J28"/>
     <mergeCell ref="D33:J37"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B46:D47"/>
